--- a/Live Aid - Full Set List - Detail.xlsx
+++ b/Live Aid - Full Set List - Detail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Movies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD89B6F8-C5D0-AD49-8286-4C9CDEEA2EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C88E9F-032D-4F40-AEBC-7F56A107BF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="1260" windowWidth="33080" windowHeight="13440" xr2:uid="{301626F6-E041-D841-865C-83153E416305}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
       <pane xSplit="11" ySplit="1" topLeftCell="L259" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2:J283"/>
+      <selection pane="bottomRight" activeCell="D283" sqref="D283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2915,7 +2915,7 @@
         <v>31241.37222222222</v>
       </c>
       <c r="D31" s="5">
-        <v>31241.368750000001</v>
+        <v>31241.577083333334</v>
       </c>
       <c r="E31" s="6">
         <v>31241.577083333334</v>
@@ -3003,7 +3003,7 @@
         <v>31241.375034722223</v>
       </c>
       <c r="D33" s="5">
-        <v>31241.37222222222</v>
+        <v>31241.580555555556</v>
       </c>
       <c r="E33" s="6">
         <v>31241.580555555556</v>
@@ -3091,7 +3091,7 @@
         <v>31241.376226851851</v>
       </c>
       <c r="D35" s="5">
-        <v>31241.375694444443</v>
+        <v>31241.584027777779</v>
       </c>
       <c r="E35" s="6">
         <v>31241.584027777779</v>
@@ -3135,7 +3135,7 @@
         <v>31241.377141203702</v>
       </c>
       <c r="D36" s="5">
-        <v>31241.376226851851</v>
+        <v>31241.584560185187</v>
       </c>
       <c r="E36" s="6">
         <v>31241.584560185187</v>
@@ -3179,7 +3179,7 @@
         <v>31241.378009259261</v>
       </c>
       <c r="D37" s="5">
-        <v>31241.377141203702</v>
+        <v>31241.585474537038</v>
       </c>
       <c r="E37" s="6">
         <v>31241.585474537038</v>
@@ -3223,7 +3223,7 @@
         <v>31241.379340277777</v>
       </c>
       <c r="D38" s="5">
-        <v>31241.378009259261</v>
+        <v>31241.586342592593</v>
       </c>
       <c r="E38" s="6">
         <v>31241.586342592593</v>
@@ -3267,7 +3267,7 @@
         <v>31241.381122685187</v>
       </c>
       <c r="D39" s="5">
-        <v>31241.379340277777</v>
+        <v>31241.587673611109</v>
       </c>
       <c r="E39" s="6">
         <v>31241.587673611109</v>
@@ -3399,7 +3399,7 @@
         <v>31241.382986111112</v>
       </c>
       <c r="D42" s="5">
-        <v>31241.381944444445</v>
+        <v>31241.590277777777</v>
       </c>
       <c r="E42" s="6">
         <v>31241.590277777777</v>
@@ -3443,7 +3443,7 @@
         <v>31241.384027777778</v>
       </c>
       <c r="D43" s="5">
-        <v>31241.382986111112</v>
+        <v>31241.591319444444</v>
       </c>
       <c r="E43" s="6">
         <v>31241.591319444444</v>
@@ -3575,7 +3575,7 @@
         <v>31241.387233796297</v>
       </c>
       <c r="D46" s="5">
-        <v>31241.384027777778</v>
+        <v>31241.59236111111</v>
       </c>
       <c r="E46" s="6">
         <v>31241.59236111111</v>
@@ -3619,7 +3619,7 @@
         <v>31241.391215277778</v>
       </c>
       <c r="D47" s="5">
-        <v>31241.387233796297</v>
+        <v>31241.595567129629</v>
       </c>
       <c r="E47" s="6">
         <v>31241.595567129629</v>
@@ -3839,7 +3839,7 @@
         <v>31241.397453703703</v>
       </c>
       <c r="D52" s="5">
-        <v>31241.397222222222</v>
+        <v>31241.605555555554</v>
       </c>
       <c r="E52" s="6">
         <v>31241.605555555554</v>
@@ -3883,7 +3883,7 @@
         <v>31241.399328703705</v>
       </c>
       <c r="D53" s="5">
-        <v>31241.397453703703</v>
+        <v>31241.605787037039</v>
       </c>
       <c r="E53" s="6">
         <v>31241.605787037039</v>
@@ -3927,7 +3927,7 @@
         <v>31241.400520833333</v>
       </c>
       <c r="D54" s="5">
-        <v>31241.399328703705</v>
+        <v>31241.607662037037</v>
       </c>
       <c r="E54" s="6">
         <v>31241.607662037037</v>
@@ -4015,7 +4015,7 @@
         <v>31241.401446759261</v>
       </c>
       <c r="D56" s="5">
-        <v>31241.400520833333</v>
+        <v>31241.608854166665</v>
       </c>
       <c r="E56" s="6">
         <v>31241.608854166665</v>
@@ -4059,7 +4059,7 @@
         <v>31241.402557870369</v>
       </c>
       <c r="D57" s="5">
-        <v>31241.401446759261</v>
+        <v>31241.609780092593</v>
       </c>
       <c r="E57" s="6">
         <v>31241.609780092593</v>
@@ -4103,7 +4103,7 @@
         <v>31241.404270833333</v>
       </c>
       <c r="D58" s="5">
-        <v>31241.402557870369</v>
+        <v>31241.610891203705</v>
       </c>
       <c r="E58" s="6">
         <v>31241.610891203705</v>
@@ -4335,7 +4335,7 @@
         <v>31241.406481481481</v>
       </c>
       <c r="D63" s="5">
-        <v>31241.40625</v>
+        <v>31241.614583333332</v>
       </c>
       <c r="E63" s="6">
         <v>31241.614583333332</v>
@@ -4379,7 +4379,7 @@
         <v>31241.409351851853</v>
       </c>
       <c r="D64" s="5">
-        <v>31241.406481481481</v>
+        <v>31241.614814814813</v>
       </c>
       <c r="E64" s="6">
         <v>31241.614814814813</v>
@@ -4470,7 +4470,7 @@
         <v>31241.411875000002</v>
       </c>
       <c r="D66" s="5">
-        <v>31241.409351851853</v>
+        <v>31241.617685185185</v>
       </c>
       <c r="E66" s="6">
         <v>31241.617685185185</v>
@@ -4602,7 +4602,7 @@
         <v>31241.413425925926</v>
       </c>
       <c r="D69" s="5">
-        <v>31241.413194444445</v>
+        <v>31241.621527777777</v>
       </c>
       <c r="E69" s="6">
         <v>31241.621527777777</v>
@@ -4646,7 +4646,7 @@
         <v>31241.416412037037</v>
       </c>
       <c r="D70" s="5">
-        <v>31241.413425925926</v>
+        <v>31241.621759259258</v>
       </c>
       <c r="E70" s="6">
         <v>31241.621759259258</v>
@@ -4734,7 +4734,7 @@
         <v>31241.421782407408</v>
       </c>
       <c r="D72" s="5">
-        <v>31241.416412037037</v>
+        <v>31241.624745370369</v>
       </c>
       <c r="E72" s="6">
         <v>31241.624745370369</v>
@@ -4822,7 +4822,7 @@
         <v>31241.424074074075</v>
       </c>
       <c r="D74" s="5">
-        <v>31241.421782407408</v>
+        <v>31241.63011574074</v>
       </c>
       <c r="E74" s="6">
         <v>31241.63011574074</v>
@@ -4954,7 +4954,7 @@
         <v>31241.42523148148</v>
       </c>
       <c r="D77" s="5">
-        <v>31241.424999999999</v>
+        <v>31241.633333333335</v>
       </c>
       <c r="E77" s="6">
         <v>31241.633333333335</v>
@@ -4998,7 +4998,7 @@
         <v>31241.427314814813</v>
       </c>
       <c r="D78" s="5">
-        <v>31241.42523148148</v>
+        <v>31241.633564814816</v>
       </c>
       <c r="E78" s="6">
         <v>31241.633564814816</v>
@@ -5042,7 +5042,7 @@
         <v>31241.43037037037</v>
       </c>
       <c r="D79" s="5">
-        <v>31241.427314814813</v>
+        <v>31241.635648148149</v>
       </c>
       <c r="E79" s="6">
         <v>31241.635648148149</v>
@@ -5218,7 +5218,7 @@
         <v>31241.435648148148</v>
       </c>
       <c r="D83" s="5">
-        <v>31241.435416666667</v>
+        <v>31241.643749999999</v>
       </c>
       <c r="E83" s="6">
         <v>31241.643749999999</v>
@@ -5262,7 +5262,7 @@
         <v>31241.438159722224</v>
       </c>
       <c r="D84" s="5">
-        <v>31241.435648148148</v>
+        <v>31241.64398148148</v>
       </c>
       <c r="E84" s="6">
         <v>31241.64398148148</v>
@@ -5394,7 +5394,7 @@
         <v>31241.440983796296</v>
       </c>
       <c r="D87" s="5">
-        <v>31241.438159722224</v>
+        <v>31241.646493055556</v>
       </c>
       <c r="E87" s="6">
         <v>31241.646493055556</v>
@@ -5438,7 +5438,7 @@
         <v>31241.44263888889</v>
       </c>
       <c r="D88" s="5">
-        <v>31241.440983796296</v>
+        <v>31241.649317129628</v>
       </c>
       <c r="E88" s="6">
         <v>31241.649317129628</v>
@@ -5614,7 +5614,7 @@
         <v>31241.449537037039</v>
       </c>
       <c r="D92" s="5">
-        <v>31241.449305555554</v>
+        <v>31241.65763888889</v>
       </c>
       <c r="E92" s="6">
         <v>31241.65763888889</v>
@@ -5658,7 +5658,7 @@
         <v>31241.453298611112</v>
       </c>
       <c r="D93" s="5">
-        <v>31241.449537037039</v>
+        <v>31241.657870370371</v>
       </c>
       <c r="E93" s="6">
         <v>31241.657870370371</v>
@@ -5790,7 +5790,7 @@
         <v>31241.456550925926</v>
       </c>
       <c r="D96" s="5">
-        <v>31241.453298611112</v>
+        <v>31241.661631944444</v>
       </c>
       <c r="E96" s="6">
         <v>31241.661631944444</v>
@@ -6098,7 +6098,7 @@
         <v>31241.470104166667</v>
       </c>
       <c r="D103" s="5">
-        <v>31241.466666666667</v>
+        <v>31241.674999999999</v>
       </c>
       <c r="E103" s="6">
         <v>31241.674999999999</v>
@@ -6186,7 +6186,7 @@
         <v>31241.472337962961</v>
       </c>
       <c r="D105" s="5">
-        <v>31241.470104166667</v>
+        <v>31241.678437499999</v>
       </c>
       <c r="E105" s="6">
         <v>31241.678437499999</v>
@@ -6274,7 +6274,7 @@
         <v>31241.47795138889</v>
       </c>
       <c r="D107" s="5">
-        <v>31241.472337962961</v>
+        <v>31241.680671296297</v>
       </c>
       <c r="E107" s="6">
         <v>31241.680671296297</v>
@@ -6450,7 +6450,7 @@
         <v>31241.478703703702</v>
       </c>
       <c r="D111" s="5">
-        <v>31241.478472222221</v>
+        <v>31241.686805555557</v>
       </c>
       <c r="E111" s="6">
         <v>31241.686805555557</v>
@@ -6494,7 +6494,7 @@
         <v>31241.481493055555</v>
       </c>
       <c r="D112" s="5">
-        <v>31241.478703703702</v>
+        <v>31241.687037037038</v>
       </c>
       <c r="E112" s="6">
         <v>31241.687037037038</v>
@@ -6582,7 +6582,7 @@
         <v>31241.4840625</v>
       </c>
       <c r="D114" s="5">
-        <v>31241.481493055555</v>
+        <v>31241.689826388891</v>
       </c>
       <c r="E114" s="6">
         <v>31241.689826388891</v>
@@ -6670,7 +6670,7 @@
         <v>31241.489108796297</v>
       </c>
       <c r="D116" s="5">
-        <v>31241.4840625</v>
+        <v>31241.692395833332</v>
       </c>
       <c r="E116" s="6">
         <v>31241.692395833332</v>
@@ -6937,7 +6937,7 @@
         <v>31241.500925925928</v>
       </c>
       <c r="D122" s="5">
-        <v>31241.500694444443</v>
+        <v>31241.709027777779</v>
       </c>
       <c r="E122" s="6">
         <v>31241.709027777779</v>
@@ -6981,7 +6981,7 @@
         <v>31241.502997685184</v>
       </c>
       <c r="D123" s="5">
-        <v>31241.500925925928</v>
+        <v>31241.70925925926</v>
       </c>
       <c r="E123" s="6">
         <v>31241.70925925926</v>
@@ -7025,7 +7025,7 @@
         <v>31241.506076388891</v>
       </c>
       <c r="D124" s="5">
-        <v>31241.502997685184</v>
+        <v>31241.71133101852</v>
       </c>
       <c r="E124" s="6">
         <v>31241.71133101852</v>
@@ -7069,7 +7069,7 @@
         <v>31241.508993055555</v>
       </c>
       <c r="D125" s="5">
-        <v>31241.506076388891</v>
+        <v>31241.714409722223</v>
       </c>
       <c r="E125" s="6">
         <v>31241.714409722223</v>
@@ -7113,7 +7113,7 @@
         <v>31241.512858796297</v>
       </c>
       <c r="D126" s="5">
-        <v>31241.508993055555</v>
+        <v>31241.717326388887</v>
       </c>
       <c r="E126" s="6">
         <v>31241.717326388887</v>
@@ -7336,7 +7336,7 @@
         <v>31241.527314814815</v>
       </c>
       <c r="D131" s="5">
-        <v>31241.527083333334</v>
+        <v>31241.735416666666</v>
       </c>
       <c r="E131" s="6">
         <v>31241.735416666666</v>
@@ -7380,7 +7380,7 @@
         <v>31241.527696759258</v>
       </c>
       <c r="D132" s="5">
-        <v>31241.527314814815</v>
+        <v>31241.735648148147</v>
       </c>
       <c r="E132" s="6">
         <v>31241.735648148147</v>
@@ -7424,7 +7424,7 @@
         <v>31241.529444444444</v>
       </c>
       <c r="D133" s="5">
-        <v>31241.527696759258</v>
+        <v>31241.736030092594</v>
       </c>
       <c r="E133" s="6">
         <v>31241.736030092594</v>
@@ -7468,7 +7468,7 @@
         <v>31241.531608796296</v>
       </c>
       <c r="D134" s="5">
-        <v>31241.529444444444</v>
+        <v>31241.737777777777</v>
       </c>
       <c r="E134" s="6">
         <v>31241.737777777777</v>
@@ -7512,7 +7512,7 @@
         <v>31241.533726851852</v>
       </c>
       <c r="D135" s="5">
-        <v>31241.531608796296</v>
+        <v>31241.739942129629</v>
       </c>
       <c r="E135" s="6">
         <v>31241.739942129629</v>
@@ -7556,7 +7556,7 @@
         <v>31241.537037037036</v>
       </c>
       <c r="D136" s="5">
-        <v>31241.533726851852</v>
+        <v>31241.742060185185</v>
       </c>
       <c r="E136" s="6">
         <v>31241.742060185185</v>
@@ -7600,7 +7600,7 @@
         <v>31241.538888888888</v>
       </c>
       <c r="D137" s="5">
-        <v>31241.537037037036</v>
+        <v>31241.745370370369</v>
       </c>
       <c r="E137" s="6">
         <v>31241.745370370369</v>
@@ -7820,7 +7820,7 @@
         <v>31241.559953703705</v>
       </c>
       <c r="D142" s="5">
-        <v>31241.55972222222</v>
+        <v>31241.768055555556</v>
       </c>
       <c r="E142" s="6">
         <v>31241.768055555556</v>
@@ -7864,7 +7864,7 @@
         <v>31241.563819444444</v>
       </c>
       <c r="D143" s="5">
-        <v>31241.559953703705</v>
+        <v>31241.768287037037</v>
       </c>
       <c r="E143" s="6">
         <v>31241.768287037037</v>
@@ -7908,7 +7908,7 @@
         <v>31241.564502314814</v>
       </c>
       <c r="D144" s="5">
-        <v>31241.563819444444</v>
+        <v>31241.772152777779</v>
       </c>
       <c r="E144" s="6">
         <v>31241.772152777779</v>
@@ -7952,7 +7952,7 @@
         <v>31241.568703703702</v>
       </c>
       <c r="D145" s="5">
-        <v>31241.564502314814</v>
+        <v>31241.772835648149</v>
       </c>
       <c r="E145" s="6">
         <v>31241.772835648149</v>
@@ -7996,7 +7996,7 @@
         <v>31241.572291666667</v>
       </c>
       <c r="D146" s="5">
-        <v>31241.568703703702</v>
+        <v>31241.777037037038</v>
       </c>
       <c r="E146" s="6">
         <v>31241.777037037038</v>
@@ -8527,7 +8527,7 @@
         <v>31241.587083333332</v>
       </c>
       <c r="D158" s="5">
-        <v>31241.586805555555</v>
+        <v>31241.795138888891</v>
       </c>
       <c r="E158" s="6">
         <v>31241.795138888891</v>
@@ -8571,7 +8571,7 @@
         <v>31241.591134259259</v>
       </c>
       <c r="D159" s="5">
-        <v>31241.587083333332</v>
+        <v>31241.795416666668</v>
       </c>
       <c r="E159" s="6">
         <v>31241.795416666668</v>
@@ -8615,7 +8615,7 @@
         <v>31241.595949074075</v>
       </c>
       <c r="D160" s="5">
-        <v>31241.591134259259</v>
+        <v>31241.799467592591</v>
       </c>
       <c r="E160" s="6">
         <v>31241.799467592591</v>
@@ -8659,7 +8659,7 @@
         <v>31241.598032407408</v>
       </c>
       <c r="D161" s="5">
-        <v>31241.595949074075</v>
+        <v>31241.804282407407</v>
       </c>
       <c r="E161" s="6">
         <v>31241.804282407407</v>
@@ -9011,7 +9011,7 @@
         <v>31241.612037037037</v>
       </c>
       <c r="D169" s="5">
-        <v>31241.611805555556</v>
+        <v>31241.820138888888</v>
       </c>
       <c r="E169" s="6">
         <v>31241.820138888888</v>
@@ -9099,7 +9099,7 @@
         <v>31241.614525462963</v>
       </c>
       <c r="D171" s="5">
-        <v>31241.612037037037</v>
+        <v>31241.820370370369</v>
       </c>
       <c r="E171" s="6">
         <v>31241.820370370369</v>
@@ -9143,7 +9143,7 @@
         <v>31241.616782407407</v>
       </c>
       <c r="D172" s="5">
-        <v>31241.614525462963</v>
+        <v>31241.822858796295</v>
       </c>
       <c r="E172" s="6">
         <v>31241.822858796295</v>
@@ -9187,7 +9187,7 @@
         <v>31241.618171296297</v>
       </c>
       <c r="D173" s="5">
-        <v>31241.616782407407</v>
+        <v>31241.825115740739</v>
       </c>
       <c r="E173" s="6">
         <v>31241.825115740739</v>
@@ -9231,7 +9231,7 @@
         <v>31241.620659722223</v>
       </c>
       <c r="D174" s="5">
-        <v>31241.618171296297</v>
+        <v>31241.826504629629</v>
       </c>
       <c r="E174" s="6">
         <v>31241.826504629629</v>
@@ -9275,7 +9275,7 @@
         <v>31241.623460648148</v>
       </c>
       <c r="D175" s="5">
-        <v>31241.620659722223</v>
+        <v>31241.828993055555</v>
       </c>
       <c r="E175" s="6">
         <v>31241.828993055555</v>
@@ -9589,7 +9589,7 @@
         <v>31241.639687499999</v>
       </c>
       <c r="D182" s="5">
-        <v>31241.639583333334</v>
+        <v>31241.847916666666</v>
       </c>
       <c r="E182" s="6">
         <v>31241.847916666666</v>
@@ -9633,7 +9633,7 @@
         <v>31241.642025462963</v>
       </c>
       <c r="D183" s="5">
-        <v>31241.639687499999</v>
+        <v>31241.848020833335</v>
       </c>
       <c r="E183" s="6">
         <v>31241.848020833335</v>
@@ -9677,7 +9677,7 @@
         <v>31241.643541666668</v>
       </c>
       <c r="D184" s="5">
-        <v>31241.642025462963</v>
+        <v>31241.850358796295</v>
       </c>
       <c r="E184" s="6">
         <v>31241.850358796295</v>
@@ -9721,7 +9721,7 @@
         <v>31241.647175925926</v>
       </c>
       <c r="D185" s="5">
-        <v>31241.643541666668</v>
+        <v>31241.851875</v>
       </c>
       <c r="E185" s="6">
         <v>31241.851875</v>
@@ -9856,7 +9856,7 @@
         <v>31241.650324074075</v>
       </c>
       <c r="D188" s="5">
-        <v>31241.647175925926</v>
+        <v>31241.855509259258</v>
       </c>
       <c r="E188" s="6">
         <v>31241.855509259258</v>
@@ -9900,7 +9900,7 @@
         <v>31241.652407407408</v>
       </c>
       <c r="D189" s="5">
-        <v>31241.650324074075</v>
+        <v>31241.858657407407</v>
       </c>
       <c r="E189" s="6">
         <v>31241.858657407407</v>
@@ -10076,7 +10076,7 @@
         <v>31241.668009259258</v>
       </c>
       <c r="D193" s="5">
-        <v>31241.664583333335</v>
+        <v>31241.872916666667</v>
       </c>
       <c r="E193" s="6">
         <v>31241.872916666667</v>
@@ -10164,7 +10164,7 @@
         <v>31241.672233796296</v>
       </c>
       <c r="D195" s="5">
-        <v>31241.668009259258</v>
+        <v>31241.876342592594</v>
       </c>
       <c r="E195" s="6">
         <v>31241.876342592594</v>
@@ -10384,7 +10384,7 @@
         <v>31241.681261574075</v>
       </c>
       <c r="D200" s="5">
-        <v>31241.679861111112</v>
+        <v>31241.888194444444</v>
       </c>
       <c r="E200" s="6">
         <v>31241.888194444444</v>
@@ -10431,7 +10431,7 @@
         <v>31241.683472222223</v>
       </c>
       <c r="D201" s="5">
-        <v>31241.681261574075</v>
+        <v>31241.889594907407</v>
       </c>
       <c r="E201" s="6">
         <v>31241.889594907407</v>
@@ -10478,7 +10478,7 @@
         <v>31241.685532407406</v>
       </c>
       <c r="D202" s="5">
-        <v>31241.685416666667</v>
+        <v>31241.893749999999</v>
       </c>
       <c r="E202" s="6">
         <v>31241.893749999999</v>
@@ -10522,7 +10522,7 @@
         <v>31241.685648148148</v>
       </c>
       <c r="D203" s="5">
-        <v>31241.685532407406</v>
+        <v>31241.893865740742</v>
       </c>
       <c r="E203" s="6">
         <v>31241.893865740742</v>
@@ -10566,7 +10566,7 @@
         <v>31241.690046296295</v>
       </c>
       <c r="D204" s="5">
-        <v>31241.685648148148</v>
+        <v>31241.89398148148</v>
       </c>
       <c r="E204" s="6">
         <v>31241.89398148148</v>
@@ -10610,7 +10610,7 @@
         <v>31241.694548611111</v>
       </c>
       <c r="D205" s="5">
-        <v>31241.690046296295</v>
+        <v>31241.898379629631</v>
       </c>
       <c r="E205" s="6">
         <v>31241.898379629631</v>
@@ -10654,7 +10654,7 @@
         <v>31241.698217592591</v>
       </c>
       <c r="D206" s="5">
-        <v>31241.694548611111</v>
+        <v>31241.902881944443</v>
       </c>
       <c r="E206" s="6">
         <v>31241.902881944443</v>
@@ -10918,7 +10918,7 @@
         <v>31241.709837962964</v>
       </c>
       <c r="D212" s="5">
-        <v>31241.709722222222</v>
+        <v>31241.918055555554</v>
       </c>
       <c r="E212" s="6">
         <v>31241.918055555554</v>
@@ -10962,7 +10962,7 @@
         <v>31241.709953703703</v>
       </c>
       <c r="D213" s="5">
-        <v>31241.709837962964</v>
+        <v>31241.918171296296</v>
       </c>
       <c r="E213" s="6">
         <v>31241.918171296296</v>
@@ -11006,7 +11006,7 @@
         <v>31241.712812500002</v>
       </c>
       <c r="D214" s="5">
-        <v>31241.709953703703</v>
+        <v>31241.918287037039</v>
       </c>
       <c r="E214" s="6">
         <v>31241.918287037039</v>
@@ -11050,7 +11050,7 @@
         <v>31241.716122685186</v>
       </c>
       <c r="D215" s="5">
-        <v>31241.712812500002</v>
+        <v>31241.921145833334</v>
       </c>
       <c r="E215" s="6">
         <v>31241.921145833334</v>
@@ -11094,7 +11094,7 @@
         <v>31241.720081018517</v>
       </c>
       <c r="D216" s="5">
-        <v>31241.716122685186</v>
+        <v>31241.924456018518</v>
       </c>
       <c r="E216" s="6">
         <v>31241.924456018518</v>
@@ -11138,7 +11138,7 @@
         <v>31241.722673611112</v>
       </c>
       <c r="D217" s="5">
-        <v>31241.720081018517</v>
+        <v>31241.928414351853</v>
       </c>
       <c r="E217" s="6">
         <v>31241.928414351853</v>
@@ -11182,7 +11182,7 @@
         <v>31241.729398148149</v>
       </c>
       <c r="D218" s="5">
-        <v>31241.729166666668</v>
+        <v>31241.9375</v>
       </c>
       <c r="E218" s="6">
         <v>31241.9375</v>
@@ -11226,7 +11226,7 @@
         <v>31241.732337962963</v>
       </c>
       <c r="D219" s="5">
-        <v>31241.729398148149</v>
+        <v>31241.937731481481</v>
       </c>
       <c r="E219" s="6">
         <v>31241.937731481481</v>
@@ -11270,7 +11270,7 @@
         <v>31241.737523148149</v>
       </c>
       <c r="D220" s="5">
-        <v>31241.735416666666</v>
+        <v>31241.943749999999</v>
       </c>
       <c r="E220" s="6">
         <v>31241.943749999999</v>
@@ -11314,7 +11314,7 @@
         <v>31241.740347222221</v>
       </c>
       <c r="D221" s="5">
-        <v>31241.737523148149</v>
+        <v>31241.945856481481</v>
       </c>
       <c r="E221" s="6">
         <v>31241.945856481481</v>
@@ -11358,7 +11358,7 @@
         <v>31241.742731481481</v>
       </c>
       <c r="D222" s="5">
-        <v>31241.740347222221</v>
+        <v>31241.948680555557</v>
       </c>
       <c r="E222" s="6">
         <v>31241.948680555557</v>
@@ -11402,7 +11402,7 @@
         <v>31241.746331018519</v>
       </c>
       <c r="D223" s="5">
-        <v>31241.742731481481</v>
+        <v>31241.951064814813</v>
       </c>
       <c r="E223" s="6">
         <v>31241.951064814813</v>
@@ -11446,7 +11446,7 @@
         <v>31241.754282407408</v>
       </c>
       <c r="D224" s="5">
-        <v>31241.754166666666</v>
+        <v>31241.962500000001</v>
       </c>
       <c r="E224" s="6">
         <v>31241.962500000001</v>
@@ -11490,7 +11490,7 @@
         <v>31241.757581018519</v>
       </c>
       <c r="D225" s="5">
-        <v>31241.754282407408</v>
+        <v>31241.96261574074</v>
       </c>
       <c r="E225" s="6">
         <v>31241.96261574074</v>
@@ -11534,7 +11534,7 @@
         <v>31241.759328703705</v>
       </c>
       <c r="D226" s="5">
-        <v>31241.757581018519</v>
+        <v>31241.965914351851</v>
       </c>
       <c r="E226" s="6">
         <v>31241.965914351851</v>
@@ -11578,7 +11578,7 @@
         <v>31241.762361111112</v>
       </c>
       <c r="D227" s="5">
-        <v>31241.759328703705</v>
+        <v>31241.967662037037</v>
       </c>
       <c r="E227" s="6">
         <v>31241.967662037037</v>
@@ -11622,7 +11622,7 @@
         <v>31241.76564814815</v>
       </c>
       <c r="D228" s="5">
-        <v>31241.762361111112</v>
+        <v>31241.970694444444</v>
       </c>
       <c r="E228" s="6">
         <v>31241.970694444444</v>
@@ -11666,7 +11666,7 @@
         <v>31241.768993055557</v>
       </c>
       <c r="D229" s="5">
-        <v>31241.76564814815</v>
+        <v>31241.973981481482</v>
       </c>
       <c r="E229" s="6">
         <v>31241.973981481482</v>
@@ -11710,7 +11710,7 @@
         <v>31241.779363425925</v>
       </c>
       <c r="D230" s="5">
-        <v>31241.779166666667</v>
+        <v>31241.987499999999</v>
       </c>
       <c r="E230" s="6">
         <v>31241.987499999999</v>
@@ -11754,7 +11754,7 @@
         <v>31241.782372685186</v>
       </c>
       <c r="D231" s="5">
-        <v>31241.779363425925</v>
+        <v>31241.987696759261</v>
       </c>
       <c r="E231" s="6">
         <v>31241.987696759261</v>
@@ -11798,7 +11798,7 @@
         <v>31241.786539351851</v>
       </c>
       <c r="D232" s="5">
-        <v>31241.782372685186</v>
+        <v>31241.990706018518</v>
       </c>
       <c r="E232" s="6">
         <v>31241.990706018518</v>
@@ -11842,7 +11842,7 @@
         <v>31241.806863425925</v>
       </c>
       <c r="D233" s="5">
-        <v>31241.806250000001</v>
+        <v>31242.014583333334</v>
       </c>
       <c r="E233" s="6">
         <v>31242.014583333334</v>
@@ -11886,7 +11886,7 @@
         <v>31241.812407407408</v>
       </c>
       <c r="D234" s="5">
-        <v>31241.806863425925</v>
+        <v>31242.015196759261</v>
       </c>
       <c r="E234" s="6">
         <v>31242.015196759261</v>
@@ -11930,7 +11930,7 @@
         <v>31241.815729166668</v>
       </c>
       <c r="D235" s="5">
-        <v>31241.812407407408</v>
+        <v>31242.02074074074</v>
       </c>
       <c r="E235" s="6">
         <v>31242.02074074074</v>
@@ -11974,7 +11974,7 @@
         <v>31241.818171296298</v>
       </c>
       <c r="D236" s="5">
-        <v>31241.818055555555</v>
+        <v>31242.026388888888</v>
       </c>
       <c r="E236" s="6">
         <v>31242.026388888888</v>
@@ -12018,7 +12018,7 @@
         <v>31241.821793981482</v>
       </c>
       <c r="D237" s="5">
-        <v>31241.818171296298</v>
+        <v>31242.02650462963</v>
       </c>
       <c r="E237" s="6">
         <v>31242.02650462963</v>
@@ -12062,7 +12062,7 @@
         <v>31241.82508101852</v>
       </c>
       <c r="D238" s="5">
-        <v>31241.821793981482</v>
+        <v>31242.030127314814</v>
       </c>
       <c r="E238" s="6">
         <v>31242.030127314814</v>
@@ -12106,7 +12106,7 @@
         <v>31241.829756944444</v>
       </c>
       <c r="D239" s="5">
-        <v>31241.82508101852</v>
+        <v>31242.033414351852</v>
       </c>
       <c r="E239" s="6">
         <v>31242.033414351852</v>
@@ -12150,7 +12150,7 @@
         <v>31241.834050925925</v>
       </c>
       <c r="D240" s="5">
-        <v>31241.833333333332</v>
+        <v>31242.041666666668</v>
       </c>
       <c r="E240" s="6">
         <v>31242.041666666668</v>
@@ -12194,7 +12194,7 @@
         <v>31241.836655092593</v>
       </c>
       <c r="D241" s="5">
-        <v>31241.834050925925</v>
+        <v>31242.042384259261</v>
       </c>
       <c r="E241" s="6">
         <v>31242.042384259261</v>
@@ -12238,7 +12238,7 @@
         <v>31241.839849537038</v>
       </c>
       <c r="D242" s="5">
-        <v>31241.836655092593</v>
+        <v>31242.044988425925</v>
       </c>
       <c r="E242" s="6">
         <v>31242.044988425925</v>
@@ -12282,7 +12282,7 @@
         <v>31241.84138888889</v>
       </c>
       <c r="D243" s="5">
-        <v>31241.840277777777</v>
+        <v>31242.048611111109</v>
       </c>
       <c r="E243" s="6">
         <v>31242.048611111109</v>
@@ -12326,7 +12326,7 @@
         <v>31241.844664351851</v>
       </c>
       <c r="D244" s="5">
-        <v>31241.84138888889</v>
+        <v>31242.049722222222</v>
       </c>
       <c r="E244" s="6">
         <v>31242.049722222222</v>
@@ -12370,7 +12370,7 @@
         <v>31241.848368055555</v>
       </c>
       <c r="D245" s="5">
-        <v>31241.844664351851</v>
+        <v>31242.052997685187</v>
       </c>
       <c r="E245" s="6">
         <v>31242.052997685187</v>
@@ -12414,7 +12414,7 @@
         <v>31241.854837962965</v>
       </c>
       <c r="D246" s="5">
-        <v>31241.848368055555</v>
+        <v>31242.05670138889</v>
       </c>
       <c r="E246" s="6">
         <v>31242.05670138889</v>
@@ -12458,7 +12458,7 @@
         <v>31241.862881944446</v>
       </c>
       <c r="D247" s="5">
-        <v>31241.860416666666</v>
+        <v>31242.068749999999</v>
       </c>
       <c r="E247" s="6">
         <v>31242.068749999999</v>
@@ -12502,7 +12502,7 @@
         <v>31241.863391203704</v>
       </c>
       <c r="D248" s="5">
-        <v>31241.862881944446</v>
+        <v>31242.071215277778</v>
       </c>
       <c r="E248" s="6">
         <v>31242.071215277778</v>
@@ -12546,7 +12546,7 @@
         <v>31241.865069444444</v>
       </c>
       <c r="D249" s="5">
-        <v>31241.863391203704</v>
+        <v>31242.071724537036</v>
       </c>
       <c r="E249" s="6">
         <v>31242.071724537036</v>
@@ -12590,7 +12590,7 @@
         <v>31241.865451388891</v>
       </c>
       <c r="D250" s="5">
-        <v>31241.865277777779</v>
+        <v>31242.073611111111</v>
       </c>
       <c r="E250" s="6">
         <v>31242.073611111111</v>
@@ -12634,7 +12634,7 @@
         <v>31241.868310185186</v>
       </c>
       <c r="D251" s="5">
-        <v>31241.865451388891</v>
+        <v>31242.073784722223</v>
       </c>
       <c r="E251" s="6">
         <v>31242.073784722223</v>
@@ -12678,7 +12678,7 @@
         <v>31241.8715625</v>
       </c>
       <c r="D252" s="5">
-        <v>31241.868310185186</v>
+        <v>31242.076643518518</v>
       </c>
       <c r="E252" s="6">
         <v>31242.076643518518</v>
@@ -12722,7 +12722,7 @@
         <v>31241.876238425924</v>
       </c>
       <c r="D253" s="5">
-        <v>31241.8715625</v>
+        <v>31242.079895833333</v>
       </c>
       <c r="E253" s="6">
         <v>31242.079895833333</v>
@@ -12766,7 +12766,7 @@
         <v>31241.880416666667</v>
       </c>
       <c r="D254" s="5">
-        <v>31241.876238425924</v>
+        <v>31242.08457175926</v>
       </c>
       <c r="E254" s="6">
         <v>31242.08457175926</v>
@@ -12904,7 +12904,7 @@
         <v>31241.88925925926</v>
       </c>
       <c r="D257" s="5">
-        <v>31241.888888888891</v>
+        <v>31242.097222222223</v>
       </c>
       <c r="E257" s="6">
         <v>31242.097222222223</v>
@@ -12948,7 +12948,7 @@
         <v>31241.891238425927</v>
       </c>
       <c r="D258" s="5">
-        <v>31241.88925925926</v>
+        <v>31242.097592592592</v>
       </c>
       <c r="E258" s="6">
         <v>31242.097592592592</v>
@@ -12992,7 +12992,7 @@
         <v>31241.894525462962</v>
       </c>
       <c r="D259" s="5">
-        <v>31241.891238425927</v>
+        <v>31242.09957175926</v>
       </c>
       <c r="E259" s="6">
         <v>31242.09957175926</v>
@@ -13036,7 +13036,7 @@
         <v>31241.898622685185</v>
       </c>
       <c r="D260" s="5">
-        <v>31241.894525462962</v>
+        <v>31242.102858796297</v>
       </c>
       <c r="E260" s="6">
         <v>31242.102858796297</v>
@@ -13080,7 +13080,7 @@
         <v>31241.900243055556</v>
       </c>
       <c r="D261" s="5">
-        <v>31241.898622685185</v>
+        <v>31242.106956018517</v>
       </c>
       <c r="E261" s="6">
         <v>31242.106956018517</v>
@@ -13124,7 +13124,7 @@
         <v>31241.902129629631</v>
       </c>
       <c r="D262" s="5">
-        <v>31241.900243055556</v>
+        <v>31242.108576388888</v>
       </c>
       <c r="E262" s="6">
         <v>31242.108576388888</v>
@@ -13168,7 +13168,7 @@
         <v>31241.904027777779</v>
       </c>
       <c r="D263" s="5">
-        <v>31241.902129629631</v>
+        <v>31242.110462962963</v>
       </c>
       <c r="E263" s="6">
         <v>31242.110462962963</v>
@@ -13212,7 +13212,7 @@
         <v>31241.909837962961</v>
       </c>
       <c r="D264" s="5">
-        <v>31241.909722222223</v>
+        <v>31242.118055555555</v>
       </c>
       <c r="E264" s="6">
         <v>31242.118055555555</v>
@@ -13256,7 +13256,7 @@
         <v>31241.910219907408</v>
       </c>
       <c r="D265" s="5">
-        <v>31241.909837962961</v>
+        <v>31242.118171296297</v>
       </c>
       <c r="E265" s="6">
         <v>31242.118171296297</v>
@@ -13300,7 +13300,7 @@
         <v>31241.913310185184</v>
       </c>
       <c r="D266" s="5">
-        <v>31241.910219907408</v>
+        <v>31242.11855324074</v>
       </c>
       <c r="E266" s="6">
         <v>31242.11855324074</v>
@@ -13344,7 +13344,7 @@
         <v>31241.917094907407</v>
       </c>
       <c r="D267" s="5">
-        <v>31241.913310185184</v>
+        <v>31242.12164351852</v>
       </c>
       <c r="E267" s="6">
         <v>31242.12164351852</v>
@@ -13388,7 +13388,7 @@
         <v>31241.918877314816</v>
       </c>
       <c r="D268" s="5">
-        <v>31241.917094907407</v>
+        <v>31242.125428240739</v>
       </c>
       <c r="E268" s="6">
         <v>31242.125428240739</v>
@@ -13432,7 +13432,7 @@
         <v>31241.920833333334</v>
       </c>
       <c r="D269" s="5">
-        <v>31241.918877314816</v>
+        <v>31242.127210648148</v>
       </c>
       <c r="E269" s="6">
         <v>31242.127210648148</v>
@@ -13476,7 +13476,7 @@
         <v>31241.922696759259</v>
       </c>
       <c r="D270" s="5">
-        <v>31241.920833333334</v>
+        <v>31242.129166666666</v>
       </c>
       <c r="E270" s="6">
         <v>31242.129166666666</v>
@@ -13520,7 +13520,7 @@
         <v>31241.92525462963</v>
       </c>
       <c r="D271" s="5">
-        <v>31241.922696759259</v>
+        <v>31242.131030092594</v>
       </c>
       <c r="E271" s="6">
         <v>31242.131030092594</v>
@@ -13564,7 +13564,7 @@
         <v>31241.927418981482</v>
       </c>
       <c r="D272" s="5">
-        <v>31241.927083333332</v>
+        <v>31242.135416666668</v>
       </c>
       <c r="E272" s="6">
         <v>31242.135416666668</v>
@@ -13608,7 +13608,7 @@
         <v>31241.929791666666</v>
       </c>
       <c r="D273" s="5">
-        <v>31241.927418981482</v>
+        <v>31242.135752314814</v>
       </c>
       <c r="E273" s="6">
         <v>31242.135752314814</v>
@@ -13652,7 +13652,7 @@
         <v>31241.933576388888</v>
       </c>
       <c r="D274" s="5">
-        <v>31241.929791666666</v>
+        <v>31242.138125000001</v>
       </c>
       <c r="E274" s="6">
         <v>31242.138125000001</v>
@@ -13696,7 +13696,7 @@
         <v>31241.937164351853</v>
       </c>
       <c r="D275" s="5">
-        <v>31241.933576388888</v>
+        <v>31242.141909722221</v>
       </c>
       <c r="E275" s="6">
         <v>31242.141909722221</v>
@@ -13740,7 +13740,7 @@
         <v>31241.938946759259</v>
       </c>
       <c r="D276" s="5">
-        <v>31241.937164351853</v>
+        <v>31242.145497685186</v>
       </c>
       <c r="E276" s="6">
         <v>31242.145497685186</v>
@@ -13784,7 +13784,7 @@
         <v>31241.940972222223</v>
       </c>
       <c r="D277" s="5">
-        <v>31241.938946759259</v>
+        <v>31242.147280092591</v>
       </c>
       <c r="E277" s="6">
         <v>31242.147280092591</v>
@@ -13828,7 +13828,7 @@
         <v>31241.943981481483</v>
       </c>
       <c r="D278" s="5">
-        <v>31241.943749999999</v>
+        <v>31242.152083333334</v>
       </c>
       <c r="E278" s="6">
         <v>31242.152083333334</v>
@@ -13872,7 +13872,7 @@
         <v>31241.944548611111</v>
       </c>
       <c r="D279" s="5">
-        <v>31241.943981481483</v>
+        <v>31242.152314814815</v>
       </c>
       <c r="E279" s="6">
         <v>31242.152314814815</v>
@@ -13916,7 +13916,7 @@
         <v>31241.947719907406</v>
       </c>
       <c r="D280" s="5">
-        <v>31241.944548611111</v>
+        <v>31242.152881944443</v>
       </c>
       <c r="E280" s="6">
         <v>31242.152881944443</v>
@@ -13960,7 +13960,7 @@
         <v>31241.950219907409</v>
       </c>
       <c r="D281" s="5">
-        <v>31241.947719907406</v>
+        <v>31242.156053240742</v>
       </c>
       <c r="E281" s="6">
         <v>31242.156053240742</v>
@@ -14004,7 +14004,7 @@
         <v>31241.95341435185</v>
       </c>
       <c r="D282" s="5">
-        <v>31241.950219907409</v>
+        <v>31242.158553240741</v>
       </c>
       <c r="E282" s="6">
         <v>31242.158553240741</v>
@@ -14048,7 +14048,7 @@
         <v>31241.961076388889</v>
       </c>
       <c r="D283" s="5">
-        <v>31241.954861111109</v>
+        <v>31242.163194444445</v>
       </c>
       <c r="E283" s="6">
         <v>31242.163194444445</v>
